--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2543.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2543.xlsx
@@ -354,7 +354,7 @@
         <v>2.466986348486555</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.29764436854365</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2543.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2543.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.37493372890776</v>
+        <v>1.716903209686279</v>
       </c>
       <c r="B1">
-        <v>2.466986348486555</v>
+        <v>2.202841758728027</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.342436552047729</v>
       </c>
       <c r="D1">
-        <v>1.29764436854365</v>
+        <v>7.341846466064453</v>
       </c>
       <c r="E1">
-        <v>1.071014989197607</v>
+        <v>0.7762166857719421</v>
       </c>
     </row>
   </sheetData>
